--- a/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-003.xlsx
+++ b/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\5. シナリオテスト（ユーザー）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555D78B-0668-41AC-8AE5-F83F35896F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5288C2E-A3F1-41F8-931C-9DD8D5550A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="8170" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -86,6 +86,398 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114917</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E813EE2-4716-5733-CA06-98267ECAF17B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12002117" cy="6426530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>140318</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2902B7B-EE81-E967-F60F-426767DDC555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12027518" cy="6382078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>197471</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAF7573-CEF6-BDF8-9E4A-1E6BAFBF7F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12084671" cy="6426530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>216522</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAAEE6E-EF27-3C4A-743C-9DA8D43C09D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12103722" cy="6401129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254624</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BDF1C9-A7D7-A143-8D0F-FFD947371EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12141824" cy="6407479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>248274</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C8188D-660F-7797-3F93-934777576683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12135474" cy="6464632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>229223</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F6B4B2-C003-97A6-A397-A82FB73C8E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12116423" cy="6426530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>210172</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02700C7B-28A6-409D-6F67-B8E0AE0FA527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12097372" cy="6426530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,14 +745,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -374,6 +765,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -387,6 +779,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -400,6 +793,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -413,6 +807,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -426,6 +821,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -439,6 +835,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -446,13 +843,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17728405-CDC0-4331-9A41-797DE0EA9495}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-003.xlsx
+++ b/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-003.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\5. シナリオテスト（ユーザー）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5288C2E-A3F1-41F8-931C-9DD8D5550A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154B3B4-771F-437B-A9D0-2A2C665347B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="8170" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-1" sheetId="1" r:id="rId1"/>
-    <sheet name="1-2" sheetId="2" r:id="rId2"/>
-    <sheet name="1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="1-4" sheetId="4" r:id="rId4"/>
-    <sheet name="1-5" sheetId="5" r:id="rId5"/>
-    <sheet name="1-6" sheetId="6" r:id="rId6"/>
-    <sheet name="1-7" sheetId="7" r:id="rId7"/>
-    <sheet name="1-8" sheetId="8" r:id="rId8"/>
+    <sheet name="DB操作前" sheetId="9" r:id="rId1"/>
+    <sheet name="DB操作後" sheetId="10" r:id="rId2"/>
+    <sheet name="1-1" sheetId="1" r:id="rId3"/>
+    <sheet name="1-2" sheetId="2" r:id="rId4"/>
+    <sheet name="1-3" sheetId="3" r:id="rId5"/>
+    <sheet name="1-4" sheetId="4" r:id="rId6"/>
+    <sheet name="1-5" sheetId="5" r:id="rId7"/>
+    <sheet name="1-6" sheetId="6" r:id="rId8"/>
+    <sheet name="1-7" sheetId="7" r:id="rId9"/>
+    <sheet name="1-8" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -99,6 +101,329 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
+      <xdr:colOff>229223</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>197048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF802632-B97D-4238-A33F-9DAE26DA5906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95866</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C65A471-98F3-4D71-AF4F-B697BD29C391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254624</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FECC0D-2D32-4CB5-B261-79FDF07A2E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="12141824" cy="5131064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>210172</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02700C7B-28A6-409D-6F67-B8E0AE0FA527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12097372" cy="6426530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>197471</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286F5D14-DF83-8092-C571-4A400BF207B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12084671" cy="3492679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>197471</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD4F8D4-E454-96FA-453C-8510D3DBA9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3657600"/>
+          <a:ext cx="12084671" cy="3664138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>178420</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A57656-7012-174E-EE46-EB9A2475704D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="12065620" cy="5315223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>114917</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>25730</xdr:rowOff>
@@ -137,7 +462,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -186,7 +511,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -235,7 +560,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -284,7 +609,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -333,7 +658,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -382,7 +707,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -420,55 +745,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="12116423" cy="6426530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>210172</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25730</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02700C7B-28A6-409D-6F67-B8E0AE0FA527}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12097372" cy="6426530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,6 +1018,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D73E1-D159-47F8-8101-B5AA9AC6A241}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17728405-CDC0-4331-9A41-797DE0EA9495}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D007305-FDE2-465A-B7FE-CE4C24E79A8A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -755,7 +1077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5755536-0878-445A-A3B3-EFDB8AC79705}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -769,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308C11C-AF0E-4264-AFEE-136546287790}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -783,7 +1105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B59740-561E-4898-B32F-4BD27D63EFBA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -797,7 +1119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42162FD5-2967-4956-B67D-2C6378AF800C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -811,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58455855-0332-456E-9AA7-3735182F1B34}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -825,7 +1147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB692B-7715-4036-9252-4ECA3816EA03}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -837,18 +1159,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17728405-CDC0-4331-9A41-797DE0EA9495}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>